--- a/Test_scenario_case_test-saucedemo_PL.xlsx
+++ b/Test_scenario_case_test-saucedemo_PL.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\Testing-a.testaddressbook.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\test-saucedemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EDF9B-850C-43B6-9059-8C8767AFAAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5DE12-A5C9-4C57-B1D1-CC9C41EEAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="3" r:id="rId1"/>
-    <sheet name="Test_scenario" sheetId="1" r:id="rId2"/>
-    <sheet name="TS_01" sheetId="2" r:id="rId3"/>
+    <sheet name="Test_scenario" sheetId="1" r:id="rId1"/>
+    <sheet name="TS_01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>ID scenariusza testowego</t>
   </si>
@@ -74,30 +73,6 @@
   </si>
   <si>
     <t>Rezultat testu</t>
-  </si>
-  <si>
-    <t>Nazwa projektu</t>
-  </si>
-  <si>
-    <t>Opis projektu</t>
-  </si>
-  <si>
-    <t>Cel projektu</t>
-  </si>
-  <si>
-    <t>Technologie</t>
-  </si>
-  <si>
-    <t>Narzędzia</t>
-  </si>
-  <si>
-    <t>Python, SQL</t>
-  </si>
-  <si>
-    <t>Microsoft Edge version: 104.0.1293.47</t>
-  </si>
-  <si>
-    <t>Testowanie podstawowej funkcjonalności systemu</t>
   </si>
   <si>
     <t>Wysoki</t>
@@ -128,63 +103,51 @@
     <t>TC_01_002</t>
   </si>
   <si>
-    <t xml:space="preserve">Testowanie strony http://a.testaddressbook.com/ </t>
-  </si>
-  <si>
-    <t>Testownie stromny www w sposób manualny oraz automatyczny</t>
-  </si>
-  <si>
-    <t>Nauka podstawowego testowania za pomocą testów manualnych oraz testów automatycznych z wykonanej wcześniej dokumentacji technicznej</t>
-  </si>
-  <si>
-    <t>Tworzenie profilu, logowanie do systemu</t>
+    <t>Zalogowanie</t>
+  </si>
+  <si>
+    <t>Poprawne zalogowanie</t>
   </si>
   <si>
     <t>1. Otwarcie przeglądarki internetowej
-2. Przejście na stronę internetową: "http://a.testaddressbook.com/"
+2. Przejście na stronę internetową: "https://www.saucedemo.com/"
 3. Zamknięcie przeglądarki</t>
   </si>
   <si>
-    <t>Przejście na stronę logowania  i wyłaczenie przeglądarki</t>
-  </si>
-  <si>
-    <t>Poprawne przejście na stronę logowania  i wyłaczenie przeglądarki</t>
-  </si>
-  <si>
-    <t>Poprawne założenie konta</t>
-  </si>
-  <si>
-    <t>Założenie konta do logowania</t>
-  </si>
-  <si>
     <t>1. Otwarcie przeglądarki internetowej
-2. Przejście na stronę internetową: "http://a.testaddressbook.com/"
-3. Kliknięcie przycisku "Sign in"
-4. Kliknięcie przycisku "Sign up"
-5. Wprowadzenie danych do założenia konta 
-6. Kliknięcie "Sign up'
-7. Zamknięcie przeglądarki</t>
-  </si>
-  <si>
-    <t>Założenie konta</t>
-  </si>
-  <si>
-    <t>Email: radek541.testaddressbook.gmail.com
-Hasło: Abcd1234!!!</t>
-  </si>
-  <si>
-    <t>Zalogowanie</t>
-  </si>
-  <si>
-    <t>1. Otwarcie przeglądarki internetowej
-2. Przejście na stronę internetową: "http://a.testaddressbook.com/"
-3. Kliknięcie przycisku "Sign in"
-4. Wprowadzenie danych do logowania
-5. Kliknięcie "Sign in'
-6. Zamknięcie przeglądarki</t>
-  </si>
-  <si>
-    <t>Poprawne zalogowanie</t>
+2. Przejście na stronę internetową: "https://www.saucedemo.com/"
+3. Wprowadzenie danych do logowania
+4. Zalogowanie
+5. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Login: standard_user
+Hasło: secret_sauce</t>
+  </si>
+  <si>
+    <t>Logowanie do systemu - standardowy użytkownik</t>
+  </si>
+  <si>
+    <t>Testowanie podstawowej funkcjonalności</t>
+  </si>
+  <si>
+    <t>Przejście na stronę logowania</t>
+  </si>
+  <si>
+    <t>Poprawne przejście na stronę logowania</t>
+  </si>
+  <si>
+    <t>Przejście do produktu</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Przejście do produktu nr 1
+3. Cofnięcie do poprzedniej strony
+4. Sprawdzenie wszystkich przejści do produktów
+5. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Poprawne sprawdzenie wszystkich przejści do produktów</t>
   </si>
 </sst>
 </file>
@@ -282,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,70 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D45ADE-3695-4C2F-AE70-6A6D46DA7AB2}">
-  <dimension ref="B3:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="135.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C6D13-0D21-413D-BDD4-7766B21AD993}">
   <dimension ref="B5:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -711,19 +618,19 @@
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -791,12 +698,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F0D4-47CF-4729-BB14-580997EEDBE9}">
   <dimension ref="B5:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,89 +747,89 @@
     </row>
     <row r="6" spans="2:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">

--- a/Test_scenario_case_test-saucedemo_PL.xlsx
+++ b/Test_scenario_case_test-saucedemo_PL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\test-saucedemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5DE12-A5C9-4C57-B1D1-CC9C41EEAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E020CA-2F9C-45BA-BED2-2BE37E7D6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>ID scenariusza testowego</t>
   </si>
@@ -137,24 +137,54 @@
     <t>Poprawne przejście na stronę logowania</t>
   </si>
   <si>
-    <t>Przejście do produktu</t>
+    <t>Poprawne sprawdzenie wszystkich przejści do produktów</t>
+  </si>
+  <si>
+    <t>TC_01_004</t>
+  </si>
+  <si>
+    <t>Przejście do produktu (zdjęcie)</t>
+  </si>
+  <si>
+    <t>Przejście do produktu (nazwa)</t>
   </si>
   <si>
     <t>1. Zalogowanie
-2. Przejście do produktu nr 1
+2. Przejście do produktu nr 1 (klikniecie w zdjęcie)
 3. Cofnięcie do poprzedniej strony
 4. Sprawdzenie wszystkich przejści do produktów
 5. Zamknięcie przeglądarki</t>
   </si>
   <si>
-    <t>Poprawne sprawdzenie wszystkich przejści do produktów</t>
+    <t>1. Zalogowanie
+2. Przejście do produktu nr 1 (klikniecie w nazwę)
+3. Cofnięcie do poprzedniej strony
+4. Sprawdzenie wszystkich przejści do produktów
+5. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>TC_01_005</t>
+  </si>
+  <si>
+    <t>Dodatnie produktu do koszyka. Po wejściu w produkt (nazwa)</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Przejście do produktu nr 1 (klikniecie w nazwę)
+3. Dodanie produktu do koszyka
+4. Cofnięcie do poprzedniej strony
+5. Sprawdzenie wszystkich przejści do produktów
+6. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Poprawne dodanie wszystkich produktów do koszyka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +221,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -245,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,9 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,14 +736,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F0D4-47CF-4729-BB14-580997EEDBE9}">
   <dimension ref="B5:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
@@ -774,7 +808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -803,56 +837,92 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -888,6 +958,7 @@
       <c r="J13" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Test_scenario_case_test-saucedemo_PL.xlsx
+++ b/Test_scenario_case_test-saucedemo_PL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\test-saucedemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E020CA-2F9C-45BA-BED2-2BE37E7D6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A620F12-5B04-47A9-BA6A-91EB60E94322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>ID scenariusza testowego</t>
   </si>
@@ -178,6 +178,20 @@
   </si>
   <si>
     <t>Poprawne dodanie wszystkich produktów do koszyka</t>
+  </si>
+  <si>
+    <t>TC_01_006</t>
+  </si>
+  <si>
+    <t>Dodatnie produktu do koszyka. Po wejściu w produkt (zdjęcie)</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Przejście do produktu nr 1 (klikniecie w zdjęcie)
+3. Dodanie produktu do koszyka
+4. Cofnięcie do poprzedniej strony
+5. Sprawdzenie wszystkich przejści do produktów
+6. Zamknięcie przeglądarki</t>
   </si>
 </sst>
 </file>
@@ -737,7 +751,7 @@
   <dimension ref="B5:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,16 +938,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+    <row r="11" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>

--- a/Test_scenario_case_test-saucedemo_PL.xlsx
+++ b/Test_scenario_case_test-saucedemo_PL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\test-saucedemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A620F12-5B04-47A9-BA6A-91EB60E94322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACB389-C846-4F5F-8F1D-1FE36BF5FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>ID scenariusza testowego</t>
   </si>
@@ -192,6 +192,67 @@
 4. Cofnięcie do poprzedniej strony
 5. Sprawdzenie wszystkich przejści do produktów
 6. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>TC_01_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodatnie produktu do koszyka i przejście do koszyka. Po wejściu w produkt (name) </t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Przejście do produktu nr 1 (klikniecie w nazwę)
+3. Dodanie produktu do koszyka
+4. Przejście do koszyka
+5. Cofnięcie do strony głównej
+6. Sprawdzenie wszystkich przejści do produktów i koszyka
+6. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Poprawne dodanie wszystkich produktów do koszyka i przejście do koszyka</t>
+  </si>
+  <si>
+    <t>TC_01_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodatnie produktu do koszyka i przejście do koszyka. Po wejściu w produkt (zdjęcie) </t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Przejście do produktu nr 1 (klikniecie w zdjęcie)
+3. Dodanie produktu do koszyka
+4. Przejście do koszyka
+5. Cofnięcie do strony głównej
+6. Sprawdzenie wszystkich przejści do produktów i koszyka
+6. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>TC_01_009</t>
+  </si>
+  <si>
+    <t>Dodatnie produktu do koszyka z strony głównej</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Dodanie produktu nr 1 do koszyka
+3. Dodanie pozostałych produktów do koszyka,
+4. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>TC_01_010</t>
+  </si>
+  <si>
+    <t>Dodatnie produktu do koszyka i jego usunięcie zkoszyka z strony głównej</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Dodanie produktu nr 1 do koszyka
+3. Usunięcie produktu nr 1 z koszyka
+4. Sprawdzenie dodania i usuwania produktów z koszyka
+5. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Poprawne dodawanie i usuwanie wszystkich produktów do koszyka</t>
   </si>
 </sst>
 </file>
@@ -748,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F0D4-47CF-4729-BB14-580997EEDBE9}">
-  <dimension ref="B5:J13"/>
+  <dimension ref="B5:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,27 +1028,121 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+    <row r="12" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Test_scenario_case_test-saucedemo_PL.xlsx
+++ b/Test_scenario_case_test-saucedemo_PL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\test-saucedemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACB389-C846-4F5F-8F1D-1FE36BF5FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF028503-4D29-48C3-B8F7-090D46DDB333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>ID scenariusza testowego</t>
   </si>
@@ -253,6 +253,48 @@
   </si>
   <si>
     <t>Poprawne dodawanie i usuwanie wszystkich produktów do koszyka</t>
+  </si>
+  <si>
+    <t>TC_01_011</t>
+  </si>
+  <si>
+    <t>Dodatnie produktów do koszyka i usunięcie produktów w koszyku</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Dodanie produktu nr 1 do koszyka
+3. Dodanie wszyskich produktów do koszyka
+4. Przejście do koszyka i usuwanie produktów z koszyka
+5. Powrót na stronę główną
+6. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Poprawne usuwanie wszystkich produktów do koszyka</t>
+  </si>
+  <si>
+    <t>TC_01_012</t>
+  </si>
+  <si>
+    <t>Dodatnie produktów do koszyka, złożenie zamówienia</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Dodanie wszyskich produktów do koszyka
+3. Przejście do koszyka
+4. Przejście do wprowadzania danych do zamówienia
+5. Zamówienie produktów
+6. Powrót na stronę główną
+7. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Login: standard_user
+Hasło: secret_sauce
+Imię: Jack
+Nazwisko: Black
+Kod pocztowy: 00-000</t>
+  </si>
+  <si>
+    <t>Poprawne złożenie zamówienia</t>
   </si>
 </sst>
 </file>
@@ -809,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F0D4-47CF-4729-BB14-580997EEDBE9}">
-  <dimension ref="B5:J15"/>
+  <dimension ref="B5:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1186,64 @@
         <v>57</v>
       </c>
     </row>
+    <row r="16" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_scenario_case_test-saucedemo_PL.xlsx
+++ b/Test_scenario_case_test-saucedemo_PL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_tester\test-saucedemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF028503-4D29-48C3-B8F7-090D46DDB333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65840A1E-7687-4955-9BF6-6C3532EAE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E476B43-0780-424F-A7E4-E1BDAF85C72D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>ID scenariusza testowego</t>
   </si>
@@ -295,6 +295,26 @@
   </si>
   <si>
     <t>Poprawne złożenie zamówienia</t>
+  </si>
+  <si>
+    <t>TC_01_013</t>
+  </si>
+  <si>
+    <t>Sortowanie produktów a-z, z-a, lo-hi, hi-lo</t>
+  </si>
+  <si>
+    <t>1. Zalogowanie
+2. Wybranie z listy sortowania z-a
+3. Wybranie z listy sortowania a-z
+4. Wybranie z listy sortowania lo-hi
+5. Wybranie z listy sortowania hi-lo
+6. Zamknięcie przeglądarki</t>
+  </si>
+  <si>
+    <t>Poprawne sortowanie produktów</t>
+  </si>
+  <si>
+    <t>Niski</t>
   </si>
 </sst>
 </file>
@@ -851,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F0D4-47CF-4729-BB14-580997EEDBE9}">
-  <dimension ref="B5:J17"/>
+  <dimension ref="B5:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,6 +1264,35 @@
         <v>66</v>
       </c>
     </row>
+    <row r="18" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
